--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c202_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c202_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1202,10 +1214,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1249,28 +1261,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1295,28 +1307,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1520,10 +1532,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1567,28 +1579,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1613,28 +1625,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1809,10 +1821,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1856,28 +1868,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1902,28 +1914,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2069,10 +2081,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2116,28 +2128,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2162,28 +2174,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2358,10 +2370,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2405,28 +2417,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2451,28 +2463,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2676,10 +2688,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J88" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2723,28 +2735,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2769,28 +2781,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2965,10 +2977,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="J98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3012,28 +3024,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3058,28 +3070,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3196,10 +3208,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="J106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3243,28 +3255,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3289,28 +3301,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3485,10 +3497,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="J116" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3532,28 +3544,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3578,28 +3590,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3890,10 +3902,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
+      <c r="J130" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K130" s="2" t="s">
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3937,28 +3949,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3983,28 +3995,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4179,10 +4191,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
+      <c r="J140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4226,28 +4238,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4272,28 +4284,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4410,10 +4422,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
+      <c r="J148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4457,28 +4469,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4503,28 +4515,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4670,10 +4682,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
+      <c r="J157" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4717,28 +4729,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4763,28 +4775,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4901,10 +4913,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
+      <c r="J165" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K165" s="2" t="s">
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4948,28 +4960,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4994,28 +5006,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5103,10 +5115,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
+      <c r="J172" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K172" s="2" t="s">
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5150,28 +5162,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5196,28 +5208,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5305,10 +5317,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
+      <c r="J179" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5352,28 +5364,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5398,28 +5410,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5507,10 +5519,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
